--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8167,13 +8167,88 @@
         <v>353.624</v>
       </c>
       <c r="E309" t="n">
-        <v>342.352</v>
+        <v>336.916</v>
       </c>
       <c r="F309" t="n">
-        <v>344.185</v>
+        <v>338.665</v>
       </c>
       <c r="G309" t="n">
-        <v>436128</v>
+        <v>1477207</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45047.29166666666</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>338.665</v>
+      </c>
+      <c r="D310" t="n">
+        <v>351.669</v>
+      </c>
+      <c r="E310" t="n">
+        <v>335.752</v>
+      </c>
+      <c r="F310" t="n">
+        <v>346.724</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1849087</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45078.29166666666</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>346.724</v>
+      </c>
+      <c r="D311" t="n">
+        <v>347.768</v>
+      </c>
+      <c r="E311" t="n">
+        <v>335.562</v>
+      </c>
+      <c r="F311" t="n">
+        <v>341.86</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1620032</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45110.29166666666</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>341.86</v>
+      </c>
+      <c r="D312" t="n">
+        <v>357.545</v>
+      </c>
+      <c r="E312" t="n">
+        <v>340.9</v>
+      </c>
+      <c r="F312" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="G312" t="n">
+        <v>380105</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -8242,13 +8242,13 @@
         <v>357.545</v>
       </c>
       <c r="E312" t="n">
-        <v>340.9</v>
+        <v>332.402</v>
       </c>
       <c r="F312" t="n">
-        <v>350.66</v>
+        <v>332.715</v>
       </c>
       <c r="G312" t="n">
-        <v>380105</v>
+        <v>833370</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G312"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.29166666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38628.29166666666</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38992.29166666666</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -8242,13 +8242,38 @@
         <v>357.545</v>
       </c>
       <c r="E312" t="n">
-        <v>332.402</v>
+        <v>331.405</v>
       </c>
       <c r="F312" t="n">
-        <v>332.715</v>
+        <v>352.1</v>
       </c>
       <c r="G312" t="n">
-        <v>833370</v>
+        <v>1975389</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45139.29166666666</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>352.1</v>
+      </c>
+      <c r="D313" t="n">
+        <v>361.15</v>
+      </c>
+      <c r="E313" t="n">
+        <v>351.715</v>
+      </c>
+      <c r="F313" t="n">
+        <v>354.36</v>
+      </c>
+      <c r="G313" t="n">
+        <v>485554</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36770.29166666666</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.29166666666</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.29166666666</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -8267,13 +8267,13 @@
         <v>361.15</v>
       </c>
       <c r="E313" t="n">
-        <v>351.715</v>
+        <v>346.316</v>
       </c>
       <c r="F313" t="n">
-        <v>354.36</v>
+        <v>351.5535</v>
       </c>
       <c r="G313" t="n">
-        <v>485554</v>
+        <v>1770201</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8267,13 +8267,88 @@
         <v>361.15</v>
       </c>
       <c r="E313" t="n">
-        <v>346.316</v>
+        <v>345.64</v>
       </c>
       <c r="F313" t="n">
-        <v>351.5535</v>
+        <v>351.752</v>
       </c>
       <c r="G313" t="n">
-        <v>1770201</v>
+        <v>2204228</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45170.29166666666</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>351.752</v>
+      </c>
+      <c r="D314" t="n">
+        <v>375.88</v>
+      </c>
+      <c r="E314" t="n">
+        <v>350.544</v>
+      </c>
+      <c r="F314" t="n">
+        <v>368.605</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1642403</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45201.33333333334</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>368.605</v>
+      </c>
+      <c r="D315" t="n">
+        <v>375.607</v>
+      </c>
+      <c r="E315" t="n">
+        <v>356.362</v>
+      </c>
+      <c r="F315" t="n">
+        <v>361.94</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2470113</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45231.33333333334</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>OANDA:USDHUF</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>361.94</v>
+      </c>
+      <c r="D316" t="n">
+        <v>365.205</v>
+      </c>
+      <c r="E316" t="n">
+        <v>351.586</v>
+      </c>
+      <c r="F316" t="n">
+        <v>352.645</v>
+      </c>
+      <c r="G316" t="n">
+        <v>748676</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -8342,13 +8342,13 @@
         <v>365.205</v>
       </c>
       <c r="E316" t="n">
-        <v>351.586</v>
+        <v>345.232</v>
       </c>
       <c r="F316" t="n">
-        <v>352.645</v>
+        <v>347.917</v>
       </c>
       <c r="G316" t="n">
-        <v>748676</v>
+        <v>1171519</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Hungary_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G316"/>
+  <dimension ref="A1:G317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7666,13 +7666,36 @@
         <v>365.205</v>
       </c>
       <c r="E316">
-        <v>345.232</v>
+        <v>342.294</v>
       </c>
       <c r="F316">
-        <v>349.144</v>
+        <v>349.215</v>
       </c>
       <c r="G316">
-        <v>1479603</v>
+        <v>2032537</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317">
+        <v>349.215</v>
+      </c>
+      <c r="D317">
+        <v>352.365</v>
+      </c>
+      <c r="E317">
+        <v>347.575</v>
+      </c>
+      <c r="F317">
+        <v>351.53</v>
+      </c>
+      <c r="G317">
+        <v>299024</v>
       </c>
     </row>
   </sheetData>
